--- a/biology/Botanique/Palais_Wiśniowiecki/Palais_Wiśniowiecki.xlsx
+++ b/biology/Botanique/Palais_Wiśniowiecki/Palais_Wiśniowiecki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Palais_Wi%C5%9Bniowiecki</t>
+          <t>Palais_Wiśniowiecki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe palatial Wiśniowiecki (en ukrainien : Вишнівецький палац, polonais : Pałac Wiśniowieckich i Mniszchów w Wiśniowcu) est un complexe palatial situé à Vychnivets dans l'oblast de Ternopil, en Ukraine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Palais_Wi%C5%9Bniowiecki</t>
+          <t>Palais_Wiśniowiecki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,51 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le siège de la famille Wiśniowiecki qui en tire son nom en polonais. Georges Mniszech et son frère André Georges Mniszech y sont nés.
-			Son portail classé[2]
-			le palais classé[3],
-			le parc classé[4],[5].
-Actuellement
+			Son portail classé
+			le palais classé,
+			le parc classé,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Palais_Wiśniowiecki</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Palais_Wi%C5%9Bniowiecki</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Actuellement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Escalier,
 			salle d'apparat.
 			Salle et collection d'armes sur une image du début du XXe siècle.
@@ -525,31 +575,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Palais_Wi%C5%9Bniowiecki</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Palais_Wiśniowiecki</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Palais_Wi%C5%9Bniowiecki</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est en 1395 que Dmitry Koribout commençait la construction d'une forteresse sur la rive de la rivière Horyn. C'est en 1517 que Michał Zbaraski Wiśniowiecki fit entrer la forteresse dans sa famille. Pour trois générations il entrait dans la famille Mniszech avec Jan Karol (1716–1759), Michał Jerzy (1748–1806) et Karol Philippe (1794–1846).
 			Plan de 1777.
